--- a/Models/device_data/Laptop_data.xlsx
+++ b/Models/device_data/Laptop_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
